--- a/Models' Variables Vocabulary.xlsx
+++ b/Models' Variables Vocabulary.xlsx
@@ -17,25 +17,25 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F16">
+    <comment authorId="0" ref="G16">
       <text>
         <t xml:space="preserve">should we mention the amount of consumed energy that is produced from wind power? or how can we quantify energy security? is it energy dependency?
 	-Katerina Ntziora</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E6">
+    <comment authorId="0" ref="F6">
       <text>
         <t xml:space="preserve">added a value 4 that is bigger than the capacity retirement lifespan
 	-Katerina Ntziora</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E8">
+    <comment authorId="0" ref="F8">
       <text>
         <t xml:space="preserve">is it a really small value?
 	-Katerina Ntziora</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A2">
+    <comment authorId="0" ref="B2">
       <text>
         <t xml:space="preserve">should we consider the same initial values for NL? I haven't found a resource to calculate or define it
 	-Katerina Ntziora</t>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
   <si>
     <t>Variable name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>perType</t>
+  </si>
+  <si>
     <t>Adjustment factor</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>In paper (australian sector) value ranges from 1.2 to 1.4 depending on the energy resource. 1.35 (coal and gas), 1.4 (wind power), 1.25 (solar power), 1.3 (hydro and biopower)</t>
+  </si>
+  <si>
+    <t>GL</t>
   </si>
   <si>
     <t>Approved %</t>
@@ -632,7 +638,7 @@
       <color rgb="FF1155CC"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,8 +647,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
         <bgColor rgb="FFA2C4C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
@@ -655,6 +673,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE69138"/>
+        <bgColor rgb="FFE69138"/>
       </patternFill>
     </fill>
     <fill>
@@ -688,62 +712,72 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -966,561 +1000,680 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.57"/>
-    <col customWidth="1" min="2" max="2" width="11.0"/>
-    <col customWidth="1" min="3" max="3" width="46.14"/>
-    <col customWidth="1" min="4" max="4" width="14.0"/>
-    <col customWidth="1" min="5" max="5" width="20.43"/>
-    <col customWidth="1" min="6" max="6" width="64.14"/>
-    <col customWidth="1" min="7" max="7" width="95.14"/>
+    <col customWidth="1" min="1" max="1" width="8.29"/>
+    <col customWidth="1" min="2" max="2" width="28.57"/>
+    <col customWidth="1" min="3" max="3" width="11.0"/>
+    <col customWidth="1" min="4" max="4" width="46.14"/>
+    <col customWidth="1" min="5" max="5" width="14.0"/>
+    <col customWidth="1" min="6" max="6" width="20.43"/>
+    <col customWidth="1" min="7" max="7" width="64.14"/>
+    <col customWidth="1" min="8" max="8" width="95.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7">
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9">
         <v>1.4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1600000.0</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="B17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="B22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1.734E7</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1600000.0</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="B27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1.734E7</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>85</v>
-      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="20"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="20"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="20"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="20"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="20"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="20"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="G8"/>
-    <hyperlink r:id="rId3" ref="G11"/>
-    <hyperlink r:id="rId4" ref="G14"/>
-    <hyperlink r:id="rId5" ref="G15"/>
-    <hyperlink r:id="rId6" ref="G17"/>
-    <hyperlink r:id="rId7" ref="G29"/>
+    <hyperlink r:id="rId2" ref="H8"/>
+    <hyperlink r:id="rId3" ref="H11"/>
+    <hyperlink r:id="rId4" ref="H14"/>
+    <hyperlink r:id="rId5" ref="H15"/>
+    <hyperlink r:id="rId6" ref="H17"/>
+    <hyperlink r:id="rId7" ref="H29"/>
   </hyperlinks>
   <drawing r:id="rId8"/>
   <legacyDrawing r:id="rId9"/>
@@ -1544,502 +1697,502 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18" t="s">
-        <v>103</v>
+      <c r="A18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18" t="s">
-        <v>108</v>
+      <c r="A22" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18" t="s">
-        <v>110</v>
+      <c r="A23" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18" t="s">
+      <c r="A26" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22" t="s">
         <v>115</v>
       </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28">
-      <c r="A28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18" t="s">
-        <v>118</v>
+      <c r="A28" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18" t="s">
-        <v>120</v>
+      <c r="A29" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34">
-      <c r="A34" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35">
-      <c r="A35" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36">
-      <c r="A36" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37">
-      <c r="A37" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38">
-      <c r="A38" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39">
-      <c r="A39" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
